--- a/Excelの転記/出席率_大橋校（３年：北村）.xlsx
+++ b/Excelの転記/出席率_大橋校（３年：北村）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18075\Documents\UiPath\Excelの転記\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3年アスリート_第▼週'!$A$8:$X$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'3年アスリート_第▼週'!$B$1:$W$40</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
   <si>
     <t>学番</t>
     <phoneticPr fontId="3"/>
@@ -300,16 +300,19 @@
     <t>AC</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>abc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2168,7 +2171,7 @@
       <selection pane="bottomRight" activeCell="D38" sqref="D9:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.25" style="42" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="3" style="8" bestFit="1" customWidth="1"/>
@@ -2184,21 +2187,21 @@
     <col min="25" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="17.25">
       <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="73"/>
       <c r="F1" s="73"/>
     </row>
-    <row r="2" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="12" thickBot="1">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="2" customFormat="1">
       <c r="B3" s="1"/>
       <c r="D3" s="74" t="s">
         <v>4</v>
@@ -2233,7 +2236,7 @@
       </c>
       <c r="V3" s="42"/>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="2" customFormat="1" ht="12" thickBot="1">
       <c r="B4" s="1"/>
       <c r="D4" s="74"/>
       <c r="E4" s="22" t="s">
@@ -2270,7 +2273,7 @@
       </c>
       <c r="V4" s="42"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22">
       <c r="G5" s="41" t="s">
         <v>22</v>
       </c>
@@ -2278,11 +2281,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="12" thickBot="1">
       <c r="F6" s="9"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="12" thickBot="1">
       <c r="C7" s="42" t="s">
         <v>23</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="12" thickBot="1">
       <c r="A8" s="66" t="s">
         <v>24</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="10.9" customHeight="1" thickBot="1">
       <c r="A9" s="65" t="s">
         <v>25</v>
       </c>
@@ -2385,11 +2388,11 @@
       <c r="K9" s="59">
         <v>1</v>
       </c>
-      <c r="L9" s="71">
-        <v>1</v>
-      </c>
-      <c r="M9" s="71">
-        <v>1</v>
+      <c r="L9" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="71" t="s">
+        <v>55</v>
       </c>
       <c r="N9" s="35" t="str">
         <f>IF(L9&lt;M9,$N$3,IF(K9=F9,$N$4,$N$5))</f>
@@ -2401,7 +2404,7 @@
       <c r="S9" s="45"/>
       <c r="U9" s="48"/>
     </row>
-    <row r="10" spans="1:22" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="10.9" customHeight="1" thickBot="1">
       <c r="A10" s="63" t="s">
         <v>25</v>
       </c>
@@ -2434,11 +2437,11 @@
       <c r="K10" s="62">
         <v>1</v>
       </c>
-      <c r="L10" s="72">
-        <v>1</v>
-      </c>
-      <c r="M10" s="72">
-        <v>1</v>
+      <c r="L10" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N10" s="35" t="str">
         <f t="shared" ref="N10:N37" si="1">IF(L10&lt;M10,$N$3,IF(K10=F10,$N$4,$N$5))</f>
@@ -2450,7 +2453,7 @@
       <c r="S10" s="46"/>
       <c r="U10" s="48"/>
     </row>
-    <row r="11" spans="1:22" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="10.9" customHeight="1" thickBot="1">
       <c r="A11" s="63" t="s">
         <v>25</v>
       </c>
@@ -2483,11 +2486,11 @@
       <c r="K11" s="62">
         <v>1</v>
       </c>
-      <c r="L11" s="72">
-        <v>1</v>
-      </c>
-      <c r="M11" s="72">
-        <v>1</v>
+      <c r="L11" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N11" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2499,7 +2502,7 @@
       <c r="S11" s="46"/>
       <c r="U11" s="50"/>
     </row>
-    <row r="12" spans="1:22" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="10.9" customHeight="1" thickBot="1">
       <c r="A12" s="63" t="s">
         <v>25</v>
       </c>
@@ -2532,11 +2535,11 @@
       <c r="K12" s="62">
         <v>1</v>
       </c>
-      <c r="L12" s="72">
-        <v>1</v>
-      </c>
-      <c r="M12" s="72">
-        <v>1</v>
+      <c r="L12" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N12" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2548,7 +2551,7 @@
       <c r="S12" s="46"/>
       <c r="U12" s="48"/>
     </row>
-    <row r="13" spans="1:22" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="10.9" customHeight="1" thickBot="1">
       <c r="A13" s="63" t="s">
         <v>25</v>
       </c>
@@ -2581,11 +2584,11 @@
       <c r="K13" s="70">
         <v>1</v>
       </c>
-      <c r="L13" s="72">
-        <v>1</v>
-      </c>
-      <c r="M13" s="72">
-        <v>1</v>
+      <c r="L13" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N13" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2597,7 +2600,7 @@
       <c r="S13" s="47"/>
       <c r="U13" s="56"/>
     </row>
-    <row r="14" spans="1:22" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="10.9" customHeight="1" thickBot="1">
       <c r="A14" s="64" t="s">
         <v>25</v>
       </c>
@@ -2630,11 +2633,11 @@
       <c r="K14" s="62">
         <v>1</v>
       </c>
-      <c r="L14" s="72">
-        <v>1</v>
-      </c>
-      <c r="M14" s="72">
-        <v>1</v>
+      <c r="L14" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N14" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2646,7 +2649,7 @@
       <c r="S14" s="45"/>
       <c r="U14" s="56"/>
     </row>
-    <row r="15" spans="1:22" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="10.9" customHeight="1" thickBot="1">
       <c r="A15" s="63" t="s">
         <v>25</v>
       </c>
@@ -2679,11 +2682,11 @@
       <c r="K15" s="62">
         <v>0.8</v>
       </c>
-      <c r="L15" s="72">
-        <v>1</v>
-      </c>
-      <c r="M15" s="72">
-        <v>1</v>
+      <c r="L15" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N15" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2695,7 +2698,7 @@
       <c r="S15" s="46"/>
       <c r="U15" s="56"/>
     </row>
-    <row r="16" spans="1:22" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="10.9" customHeight="1" thickBot="1">
       <c r="A16" s="63" t="s">
         <v>25</v>
       </c>
@@ -2728,11 +2731,11 @@
       <c r="K16" s="62">
         <v>0.6</v>
       </c>
-      <c r="L16" s="72">
-        <v>1</v>
-      </c>
-      <c r="M16" s="72">
-        <v>1</v>
+      <c r="L16" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N16" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2744,7 +2747,7 @@
       <c r="S16" s="46"/>
       <c r="U16" s="48"/>
     </row>
-    <row r="17" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A17" s="63" t="s">
         <v>25</v>
       </c>
@@ -2777,11 +2780,11 @@
       <c r="K17" s="62">
         <v>1</v>
       </c>
-      <c r="L17" s="72">
-        <v>1</v>
-      </c>
-      <c r="M17" s="72">
-        <v>1</v>
+      <c r="L17" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N17" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2793,7 +2796,7 @@
       <c r="S17" s="46"/>
       <c r="U17" s="50"/>
     </row>
-    <row r="18" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A18" s="63" t="s">
         <v>25</v>
       </c>
@@ -2826,11 +2829,11 @@
       <c r="K18" s="70">
         <v>1</v>
       </c>
-      <c r="L18" s="72">
-        <v>1</v>
-      </c>
-      <c r="M18" s="72">
-        <v>1</v>
+      <c r="L18" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N18" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2842,7 +2845,7 @@
       <c r="S18" s="47"/>
       <c r="U18" s="48"/>
     </row>
-    <row r="19" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A19" s="64" t="s">
         <v>25</v>
       </c>
@@ -2875,11 +2878,11 @@
       <c r="K19" s="62">
         <v>1</v>
       </c>
-      <c r="L19" s="72">
-        <v>1</v>
-      </c>
-      <c r="M19" s="72">
-        <v>1</v>
+      <c r="L19" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N19" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2891,7 +2894,7 @@
       <c r="S19" s="45"/>
       <c r="U19" s="48"/>
     </row>
-    <row r="20" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A20" s="63" t="s">
         <v>25</v>
       </c>
@@ -2924,11 +2927,11 @@
       <c r="K20" s="62">
         <v>1</v>
       </c>
-      <c r="L20" s="72">
-        <v>1</v>
-      </c>
-      <c r="M20" s="72">
-        <v>1</v>
+      <c r="L20" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N20" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2940,7 +2943,7 @@
       <c r="S20" s="46"/>
       <c r="U20" s="48"/>
     </row>
-    <row r="21" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A21" s="63" t="s">
         <v>25</v>
       </c>
@@ -2973,11 +2976,11 @@
       <c r="K21" s="62">
         <v>1</v>
       </c>
-      <c r="L21" s="72">
-        <v>1</v>
-      </c>
-      <c r="M21" s="72">
-        <v>1</v>
+      <c r="L21" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N21" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2989,7 +2992,7 @@
       <c r="S21" s="46"/>
       <c r="U21" s="57"/>
     </row>
-    <row r="22" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A22" s="63" t="s">
         <v>25</v>
       </c>
@@ -3022,11 +3025,11 @@
       <c r="K22" s="62">
         <v>0.96699999999999997</v>
       </c>
-      <c r="L22" s="72">
-        <v>1</v>
-      </c>
-      <c r="M22" s="72">
-        <v>1</v>
+      <c r="L22" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N22" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3038,7 +3041,7 @@
       <c r="S22" s="46"/>
       <c r="U22" s="48"/>
     </row>
-    <row r="23" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A23" s="63" t="s">
         <v>25</v>
       </c>
@@ -3071,11 +3074,11 @@
       <c r="K23" s="70">
         <v>1</v>
       </c>
-      <c r="L23" s="72">
-        <v>1</v>
-      </c>
-      <c r="M23" s="72">
-        <v>1</v>
+      <c r="L23" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N23" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3087,7 +3090,7 @@
       <c r="S23" s="47"/>
       <c r="U23" s="48"/>
     </row>
-    <row r="24" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A24" s="64" t="s">
         <v>25</v>
       </c>
@@ -3120,11 +3123,11 @@
       <c r="K24" s="62">
         <v>1</v>
       </c>
-      <c r="L24" s="72">
-        <v>1</v>
-      </c>
-      <c r="M24" s="72">
-        <v>1</v>
+      <c r="L24" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N24" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3136,7 +3139,7 @@
       <c r="S24" s="45"/>
       <c r="U24" s="50"/>
     </row>
-    <row r="25" spans="1:21" s="43" customFormat="1" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="43" customFormat="1" ht="10.9" customHeight="1" thickBot="1">
       <c r="A25" s="63" t="s">
         <v>25</v>
       </c>
@@ -3169,11 +3172,11 @@
       <c r="K25" s="62">
         <v>1</v>
       </c>
-      <c r="L25" s="72">
-        <v>1</v>
-      </c>
-      <c r="M25" s="72">
-        <v>1</v>
+      <c r="L25" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N25" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3186,7 +3189,7 @@
       <c r="T25" s="44"/>
       <c r="U25" s="49"/>
     </row>
-    <row r="26" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A26" s="63" t="s">
         <v>25</v>
       </c>
@@ -3219,11 +3222,11 @@
       <c r="K26" s="62">
         <v>1</v>
       </c>
-      <c r="L26" s="72">
-        <v>1</v>
-      </c>
-      <c r="M26" s="72">
-        <v>1</v>
+      <c r="L26" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N26" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3235,7 +3238,7 @@
       <c r="S26" s="46"/>
       <c r="U26" s="48"/>
     </row>
-    <row r="27" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A27" s="63" t="s">
         <v>25</v>
       </c>
@@ -3268,11 +3271,11 @@
       <c r="K27" s="62">
         <v>1</v>
       </c>
-      <c r="L27" s="72">
-        <v>1</v>
-      </c>
-      <c r="M27" s="72">
-        <v>1</v>
+      <c r="L27" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N27" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3284,7 +3287,7 @@
       <c r="S27" s="46"/>
       <c r="U27" s="50"/>
     </row>
-    <row r="28" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A28" s="63" t="s">
         <v>25</v>
       </c>
@@ -3317,11 +3320,11 @@
       <c r="K28" s="70">
         <v>1</v>
       </c>
-      <c r="L28" s="72">
-        <v>1</v>
-      </c>
-      <c r="M28" s="72">
-        <v>1</v>
+      <c r="L28" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N28" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3333,7 +3336,7 @@
       <c r="S28" s="47"/>
       <c r="U28" s="48"/>
     </row>
-    <row r="29" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A29" s="64" t="s">
         <v>25</v>
       </c>
@@ -3366,11 +3369,11 @@
       <c r="K29" s="62">
         <v>1</v>
       </c>
-      <c r="L29" s="72">
-        <v>1</v>
-      </c>
-      <c r="M29" s="72">
-        <v>1</v>
+      <c r="L29" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N29" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3382,7 +3385,7 @@
       <c r="S29" s="45"/>
       <c r="U29" s="50"/>
     </row>
-    <row r="30" spans="1:21" s="43" customFormat="1" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="43" customFormat="1" ht="10.9" customHeight="1" thickBot="1">
       <c r="A30" s="63" t="s">
         <v>25</v>
       </c>
@@ -3415,11 +3418,11 @@
       <c r="K30" s="62">
         <v>1</v>
       </c>
-      <c r="L30" s="72">
-        <v>1</v>
-      </c>
-      <c r="M30" s="72">
-        <v>1</v>
+      <c r="L30" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N30" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3432,7 +3435,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="49"/>
     </row>
-    <row r="31" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A31" s="63" t="s">
         <v>25</v>
       </c>
@@ -3465,11 +3468,11 @@
       <c r="K31" s="62">
         <v>1</v>
       </c>
-      <c r="L31" s="72">
-        <v>1</v>
-      </c>
-      <c r="M31" s="72">
-        <v>1</v>
+      <c r="L31" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N31" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3481,7 +3484,7 @@
       <c r="S31" s="46"/>
       <c r="U31" s="48"/>
     </row>
-    <row r="32" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A32" s="63" t="s">
         <v>25</v>
       </c>
@@ -3514,11 +3517,11 @@
       <c r="K32" s="62">
         <v>0.96699999999999997</v>
       </c>
-      <c r="L32" s="72">
-        <v>1</v>
-      </c>
-      <c r="M32" s="72">
-        <v>1</v>
+      <c r="L32" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N32" s="35"/>
       <c r="O32" s="19"/>
@@ -3527,7 +3530,7 @@
       <c r="S32" s="46"/>
       <c r="U32" s="50"/>
     </row>
-    <row r="33" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A33" s="63" t="s">
         <v>25</v>
       </c>
@@ -3560,11 +3563,11 @@
       <c r="K33" s="70">
         <v>1</v>
       </c>
-      <c r="L33" s="72">
-        <v>1</v>
-      </c>
-      <c r="M33" s="72">
-        <v>1</v>
+      <c r="L33" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N33" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3576,7 +3579,7 @@
       <c r="S33" s="47"/>
       <c r="U33" s="48"/>
     </row>
-    <row r="34" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A34" s="64" t="s">
         <v>25</v>
       </c>
@@ -3609,11 +3612,11 @@
       <c r="K34" s="62">
         <v>1</v>
       </c>
-      <c r="L34" s="72">
-        <v>1</v>
-      </c>
-      <c r="M34" s="72">
-        <v>1</v>
+      <c r="L34" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N34" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3625,7 +3628,7 @@
       <c r="S34" s="45"/>
       <c r="U34" s="50"/>
     </row>
-    <row r="35" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A35" s="63" t="s">
         <v>25</v>
       </c>
@@ -3658,11 +3661,11 @@
       <c r="K35" s="62">
         <v>1</v>
       </c>
-      <c r="L35" s="72">
-        <v>1</v>
-      </c>
-      <c r="M35" s="72">
-        <v>1</v>
+      <c r="L35" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N35" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3674,7 +3677,7 @@
       <c r="S35" s="46"/>
       <c r="U35" s="48"/>
     </row>
-    <row r="36" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A36" s="63" t="s">
         <v>25</v>
       </c>
@@ -3707,11 +3710,11 @@
       <c r="K36" s="62">
         <v>1</v>
       </c>
-      <c r="L36" s="72">
-        <v>1</v>
-      </c>
-      <c r="M36" s="72">
-        <v>1</v>
+      <c r="L36" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N36" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3723,7 +3726,7 @@
       <c r="S36" s="46"/>
       <c r="U36" s="50"/>
     </row>
-    <row r="37" spans="1:21" ht="10.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="10.9" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>25</v>
       </c>
@@ -3756,11 +3759,11 @@
       <c r="K37" s="62">
         <v>1</v>
       </c>
-      <c r="L37" s="72">
-        <v>1</v>
-      </c>
-      <c r="M37" s="72">
-        <v>1</v>
+      <c r="L37" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="N37" s="35" t="str">
         <f t="shared" si="1"/>
@@ -3772,7 +3775,7 @@
       <c r="S37" s="46"/>
       <c r="U37" s="48"/>
     </row>
-    <row r="38" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="A38" s="63" t="s">
         <v>25</v>
       </c>
@@ -3798,7 +3801,7 @@
       <c r="S38" s="47"/>
       <c r="U38" s="48"/>
     </row>
-    <row r="39" spans="1:21" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="10.9" customHeight="1" thickBot="1">
       <c r="E39" s="34" t="s">
         <v>12</v>
       </c>
@@ -3826,13 +3829,13 @@
         <f>AVERAGE(K9:K37)</f>
         <v>0.97703448275862059</v>
       </c>
-      <c r="L39" s="69">
+      <c r="L39" s="69" t="e">
         <f>AVERAGE(L9:L37)</f>
-        <v>1</v>
-      </c>
-      <c r="M39" s="69">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="69" t="e">
         <f>AVERAGE(M9:M37)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N39" s="10" t="str">
         <f>IF(I39&lt;J39,$N$3,IF(G39=H39,$N$4,$N$5))</f>
@@ -3840,7 +3843,7 @@
       </c>
       <c r="U39" s="48"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21">
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
